--- a/Team-Data/2008-09/12-28-2008-09.xlsx
+++ b/Team-Data/2008-09/12-28-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -915,97 +915,97 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.867</v>
+        <v>0.871</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1187,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1279,109 +1279,109 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.414</v>
+        <v>0.433</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.799</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1390,46 +1390,46 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT5" t="n">
         <v>14</v>
       </c>
-      <c r="AT5" t="n">
-        <v>13</v>
-      </c>
       <c r="AU5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1461,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.893</v>
+        <v>0.862</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.481</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
         <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1557,22 +1557,22 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1581,37 +1581,37 @@
         <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB6" t="n">
         <v>7</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>5</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,13 +1721,13 @@
         <v>2.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1748,10 +1748,10 @@
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1903,7 +1903,7 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1930,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1972,10 +1972,10 @@
         <v>22</v>
       </c>
       <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
         <v>5</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>6</v>
       </c>
       <c r="BC8" t="n">
         <v>7</v>
@@ -2085,7 +2085,7 @@
         <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -2121,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2139,10 +2139,10 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>12</v>
@@ -2294,7 +2294,7 @@
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>26</v>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>1</v>
@@ -2315,7 +2315,7 @@
         <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2333,7 +2333,7 @@
         <v>28</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -2482,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>10</v>
@@ -2497,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2512,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>4</v>
@@ -2524,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2673,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2691,10 +2691,10 @@
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2703,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2813,7 +2813,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2831,7 +2831,7 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.821</v>
+        <v>0.828</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2944,31 +2944,31 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.1</v>
@@ -2977,28 +2977,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -3019,28 +3019,28 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="n">
         <v>15</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS14" t="n">
         <v>5</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -3055,13 +3055,13 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
         <v>8</v>
       </c>
-      <c r="AY14" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3177,7 +3177,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3189,7 +3189,7 @@
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -3210,7 +3210,7 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3359,13 +3359,13 @@
         <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -3395,13 +3395,13 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
@@ -3413,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
@@ -3425,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>20</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3481,43 +3481,43 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3526,22 +3526,22 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3553,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -3571,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3580,25 +3580,25 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3610,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3756,7 +3756,7 @@
         <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>12</v>
@@ -3771,13 +3771,13 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3789,10 +3789,10 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
@@ -3905,7 +3905,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3917,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>9</v>
@@ -4138,7 +4138,7 @@
         <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4269,13 +4269,13 @@
         <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
@@ -4311,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4320,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
@@ -4493,13 +4493,13 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
@@ -4517,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>27</v>
@@ -4633,7 +4633,7 @@
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4666,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4815,16 +4815,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4848,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
@@ -4860,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>20</v>
@@ -4881,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4997,13 +4997,13 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -5048,7 +5048,7 @@
         <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>28</v>
@@ -5063,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5072,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>3</v>
@@ -5227,31 +5227,31 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
         <v>14</v>
       </c>
       <c r="AV26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5361,7 +5361,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5543,7 +5543,7 @@
         <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5561,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5615,7 +5615,7 @@
         <v>29</v>
       </c>
       <c r="BB28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
         <v>9</v>
@@ -5725,10 +5725,10 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -5749,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
@@ -5967,19 +5967,19 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC30" t="n">
         <v>11</v>
@@ -6089,7 +6089,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>

--- a/Team-Data/2008-09/12-28-2008-09.xlsx
+++ b/Team-Data/2008-09/12-28-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
@@ -774,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>16</v>
@@ -792,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -807,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -863,43 +930,43 @@
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
         <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>16.5</v>
@@ -908,43 +975,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.9</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1141,13 +1208,13 @@
         <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
@@ -1156,7 +1223,7 @@
         <v>29</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
@@ -1165,16 +1232,16 @@
         <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -1212,109 +1279,109 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.414</v>
+        <v>0.433</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.444</v>
+        <v>0.446</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.799</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1323,46 +1390,46 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT5" t="n">
         <v>14</v>
       </c>
-      <c r="AT5" t="n">
-        <v>13</v>
-      </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -1397,13 +1464,13 @@
         <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.897</v>
+        <v>0.862</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
@@ -1412,67 +1479,67 @@
         <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
         <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
         <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
         <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1490,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1499,10 +1566,10 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
@@ -1511,40 +1578,40 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT6" t="n">
         <v>12</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>11</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -1576,70 +1643,70 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.586</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J7" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
       <c r="O7" t="n">
         <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="R7" t="n">
         <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="T7" t="n">
-        <v>45.6</v>
+        <v>45.3</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z7" t="n">
         <v>18.9</v>
@@ -1651,28 +1718,28 @@
         <v>99.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1681,22 +1748,22 @@
         <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1708,13 +1775,13 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>11</v>
@@ -1726,10 +1793,10 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.645</v>
+        <v>0.633</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="J8" t="n">
         <v>78.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="L8" t="n">
         <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
         <v>29.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
         <v>16.1</v>
@@ -1818,40 +1885,40 @@
         <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z8" t="n">
         <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
@@ -1899,13 +1966,13 @@
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
       </c>
       <c r="BA8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
@@ -2033,7 +2100,7 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
@@ -2051,10 +2118,10 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2063,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2075,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>12</v>
@@ -2093,7 +2160,7 @@
         <v>22</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.281</v>
+        <v>0.29</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,67 +2207,67 @@
         <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>87.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M10" t="n">
         <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.328</v>
+        <v>0.322</v>
       </c>
       <c r="O10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P10" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R10" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U10" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>6.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z10" t="n">
         <v>20.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>105</v>
+        <v>104.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.3</v>
+        <v>-5.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2221,16 +2288,16 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
         <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,22 +2306,22 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2394,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2415,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>10</v>
@@ -2427,13 +2494,13 @@
         <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2451,13 +2518,13 @@
         <v>4</v>
       </c>
       <c r="BA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB11" t="n">
         <v>15</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.333</v>
+        <v>0.345</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I12" t="n">
         <v>39</v>
       </c>
       <c r="J12" t="n">
-        <v>86.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M12" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
         <v>17.4</v>
@@ -2525,37 +2592,37 @@
         <v>21.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.798</v>
+        <v>0.801</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T12" t="n">
         <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V12" t="n">
         <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>102.2</v>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2585,19 +2652,19 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
@@ -2606,25 +2673,25 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,10 +2700,10 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -2668,91 +2735,91 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="H13" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="M13" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.306</v>
+        <v>0.311</v>
       </c>
       <c r="O13" t="n">
         <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.739</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.5</v>
+        <v>-5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>26</v>
@@ -2761,19 +2828,19 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>29</v>
@@ -2782,28 +2849,28 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
@@ -2821,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -2865,70 +2932,70 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>84.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
         <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2946,22 +3013,22 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2970,10 +3037,10 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS14" t="n">
         <v>5</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2982,19 +3049,19 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -3116,10 +3183,10 @@
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -3143,7 +3210,7 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3167,22 +3234,22 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.552</v>
+        <v>0.571</v>
       </c>
       <c r="H16" t="n">
         <v>48.2</v>
@@ -3238,37 +3305,37 @@
         <v>0.448</v>
       </c>
       <c r="L16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="R16" t="n">
         <v>11.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
@@ -3277,64 +3344,64 @@
         <v>6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
         <v>14</v>
       </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
@@ -3346,13 +3413,13 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
         <v>5</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3361,13 +3428,13 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,43 +3481,43 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
       <c r="R17" t="n">
         <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>44.1</v>
+        <v>43.7</v>
       </c>
       <c r="U17" t="n">
         <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3459,22 +3526,22 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3486,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3513,25 +3580,25 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3543,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -3698,7 +3765,7 @@
         <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3722,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -3853,10 +3920,10 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>21</v>
@@ -3865,10 +3932,10 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3892,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.654</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="J20" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
@@ -3972,64 +4039,64 @@
         <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
         <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.802</v>
+        <v>0.805</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
         <v>29.4</v>
       </c>
       <c r="T20" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y20" t="n">
         <v>3.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD20" t="n">
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4059,10 +4126,10 @@
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS20" t="n">
         <v>23</v>
@@ -4071,28 +4138,28 @@
         <v>26</v>
       </c>
       <c r="AU20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX20" t="n">
         <v>24</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>0.379</v>
+        <v>0.393</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4142,79 +4209,79 @@
         <v>38</v>
       </c>
       <c r="J21" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M21" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P21" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.797</v>
+        <v>0.802</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="T21" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U21" t="n">
         <v>22.4</v>
       </c>
       <c r="V21" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
         <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
         <v>20.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4235,16 +4302,16 @@
         <v>17</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4253,19 +4320,19 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4426,13 +4493,13 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>25</v>
@@ -4450,7 +4517,7 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>27</v>
@@ -4459,7 +4526,7 @@
         <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
@@ -4608,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>-1.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -4781,25 +4848,25 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
         <v>26</v>
@@ -4814,7 +4881,7 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4945,10 +5012,10 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4996,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -5034,133 +5101,133 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>7</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
         <v>14</v>
@@ -5169,22 +5236,22 @@
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -5216,70 +5283,70 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.226</v>
+        <v>0.233</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.8</v>
       </c>
       <c r="J27" t="n">
-        <v>80.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.453</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
         <v>17.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.316</v>
+        <v>0.32</v>
       </c>
       <c r="O27" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P27" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
         <v>0.784</v>
       </c>
       <c r="R27" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S27" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z27" t="n">
         <v>23.5</v>
@@ -5288,34 +5355,34 @@
         <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>96</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.800000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>21</v>
@@ -5324,13 +5391,13 @@
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
         <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5342,22 +5409,22 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>23</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,10 +5433,10 @@
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5564,7 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -5661,10 +5728,10 @@
         <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -5679,13 +5746,13 @@
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -5694,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT29" t="n">
         <v>29</v>
@@ -5712,7 +5779,7 @@
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
@@ -5727,7 +5794,7 @@
         <v>2</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5916,7 @@
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>4</v>
@@ -5861,7 +5928,7 @@
         <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5900,23 +5967,23 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
       </c>
       <c r="BB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC30" t="n">
         <v>11</v>
       </c>
-      <c r="BC30" t="n">
-        <v>12</v>
-      </c>
       <c r="BD30" t="n">
         <v>10</v>
       </c>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>20</v>
@@ -6052,7 +6119,7 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6064,7 +6131,7 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>28</v>
@@ -6076,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="AV31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
@@ -6085,10 +6152,10 @@
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6097,7 +6164,7 @@
         <v>23</v>
       </c>
       <c r="BC31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-28-2008-09</t>
+          <t>2008-12-28</t>
         </is>
       </c>
     </row>
